--- a/ExcelConfig/货郎.xlsx
+++ b/ExcelConfig/货郎.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="26680" windowHeight="14460"/>
+    <workbookView xWindow="240" yWindow="96" windowWidth="26676" windowHeight="14460"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
-    <sheet name="StoreData" sheetId="1" r:id="rId2"/>
+    <sheet name="StoreDataConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,18 +57,6 @@
   </si>
   <si>
     <t>物品id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoreData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoreData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoreData.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -129,12 +117,19 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>StoreDataConfig</t>
+  </si>
+  <si>
+    <t>StoreDataConfig.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +184,13 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -213,16 +215,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -280,7 +283,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,7 +318,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -527,30 +530,30 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -573,127 +576,141 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="2"/>
-    <col min="4" max="4" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="2"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="2"/>
+    <col min="4" max="4" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" ht="16">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="B4" s="2">
+    <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9">
-      <c r="B5" s="2">
+    <row r="5" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
-    <row r="20" spans="6:11" ht="16">
+    <row r="20" spans="6:11" ht="16.2" x14ac:dyDescent="0.3">
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="6:11" ht="16">
+    <row r="21" spans="6:11" ht="16.2" x14ac:dyDescent="0.3">
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>

--- a/ExcelConfig/货郎.xlsx
+++ b/ExcelConfig/货郎.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="96" windowWidth="26676" windowHeight="14460"/>
+    <workbookView xWindow="240" yWindow="96" windowWidth="26676" windowHeight="14460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -129,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,13 +161,6 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -212,15 +205,14 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -529,7 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -570,13 +562,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -591,131 +583,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>7</v>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="20" spans="6:11" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="6:11" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelConfig/货郎.xlsx
+++ b/ExcelConfig/货郎.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="96" windowWidth="26676" windowHeight="14460" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="26670" windowHeight="14460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -85,10 +85,6 @@
     <t>解锁参数4</t>
   </si>
   <si>
-    <t>Sold_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Unlock_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,6 +118,10 @@
   </si>
   <si>
     <t>StoreDataConfig.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sold_price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,27 +525,27 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -568,21 +568,21 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" style="2"/>
-    <col min="4" max="4" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.77734375" style="2"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="2"/>
+    <col min="4" max="4" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -593,25 +593,25 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -640,7 +640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -669,7 +669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3">
         <v>1</v>
@@ -677,14 +677,16 @@
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3">
+        <v>100</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>2</v>
@@ -692,7 +694,9 @@
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3">
+        <v>1000</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>

--- a/ExcelConfig/货郎.xlsx
+++ b/ExcelConfig/货郎.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="26670" windowHeight="14460" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="96" windowWidth="26676" windowHeight="14460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -85,6 +85,10 @@
     <t>解锁参数4</t>
   </si>
   <si>
+    <t>Sold_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Unlock_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,10 +122,6 @@
   </si>
   <si>
     <t>StoreDataConfig.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sold_price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,27 +525,27 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -568,21 +568,21 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="2"/>
-    <col min="4" max="4" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="2"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="2"/>
+    <col min="4" max="4" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -593,25 +593,25 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -640,7 +640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -669,7 +669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3">
         <v>1</v>
@@ -677,16 +677,14 @@
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
-        <v>100</v>
-      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>2</v>
@@ -694,9 +692,7 @@
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3">
-        <v>1000</v>
-      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>

--- a/ExcelConfig/货郎.xlsx
+++ b/ExcelConfig/货郎.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="96" windowWidth="26676" windowHeight="14460" activeTab="1"/>
+    <workbookView xWindow="3345" yWindow="-105" windowWidth="11820" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="StoreDataConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,22 +42,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hero1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Int</t>
   </si>
   <si>
     <t>String</t>
-  </si>
-  <si>
-    <t>物品id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>物品名称</t>
@@ -124,12 +112,137 @@
     <t>StoreDataConfig.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>回魂幡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地契</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砥石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸:石硝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品解锁条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> -1  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建造指定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的建筑</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>达成指定地图探索度</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸:1级矿锄</t>
+  </si>
+  <si>
+    <t>生铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛮皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青麻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏魂石</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,21 +298,65 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -208,11 +365,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -233,7 +397,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -275,7 +439,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -310,7 +474,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -525,27 +689,27 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -562,27 +726,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" style="2"/>
-    <col min="4" max="4" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.77734375" style="2"/>
+    <col min="1" max="1" width="18.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -590,124 +755,327 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>91</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3">
         <v>15</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3">
+        <v>-1</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="C5" s="3">
+        <v>159</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-1</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>165</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>168</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <v>17</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2">
+        <v>23</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:Q2">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:R2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/ExcelConfig/货郎.xlsx
+++ b/ExcelConfig/货郎.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,6 +236,14 @@
   </si>
   <si>
     <t>藏魂石</t>
+  </si>
+  <si>
+    <t>购买最大数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max_purchase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -726,13 +734,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -742,12 +750,13 @@
     <col min="3" max="3" width="7.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.75" style="2"/>
+    <col min="6" max="6" width="15.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -764,22 +773,25 @@
         <v>14</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -799,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>6</v>
@@ -810,8 +822,11 @@
       <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="K2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -828,22 +843,25 @@
         <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="2">
         <v>1</v>
@@ -858,14 +876,17 @@
         <v>15</v>
       </c>
       <c r="F4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G4" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-1</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2">
         <v>2</v>
@@ -882,12 +903,15 @@
       <c r="F5" s="3">
         <v>-1</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <v>-1</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
@@ -903,11 +927,14 @@
       <c r="E6" s="2">
         <v>50</v>
       </c>
-      <c r="F6" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>29</v>
       </c>
@@ -923,11 +950,14 @@
       <c r="E7" s="2">
         <v>4</v>
       </c>
-      <c r="F7" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>30</v>
       </c>
@@ -943,11 +973,14 @@
       <c r="E8" s="2">
         <v>10</v>
       </c>
-      <c r="F8" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
@@ -963,11 +996,14 @@
       <c r="E9" s="2">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>7</v>
       </c>
@@ -981,13 +1017,16 @@
         <v>10</v>
       </c>
       <c r="F10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>8</v>
       </c>
@@ -1001,13 +1040,16 @@
         <v>14</v>
       </c>
       <c r="F11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>9</v>
       </c>
@@ -1021,13 +1063,16 @@
         <v>4</v>
       </c>
       <c r="F12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>10</v>
       </c>
@@ -1041,13 +1086,16 @@
         <v>6</v>
       </c>
       <c r="F13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="2">
         <v>1</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>11</v>
       </c>
@@ -1061,16 +1109,19 @@
         <v>12</v>
       </c>
       <c r="F14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="2">
         <v>1</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:R2">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:S2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ExcelConfig/货郎.xlsx
+++ b/ExcelConfig/货郎.xlsx
@@ -10,7 +10,7 @@
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="StoreDataConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -216,9 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>图纸:1级矿锄</t>
-  </si>
-  <si>
     <t>生铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,6 +240,38 @@
   </si>
   <si>
     <t>Max_purchase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图纸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>矿锄Ⅰ</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -740,7 +769,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -773,7 +802,7 @@
         <v>14</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>15</v>
@@ -843,7 +872,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>9</v>
@@ -870,7 +899,7 @@
         <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3">
         <v>15</v>
@@ -1011,7 +1040,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
@@ -1034,7 +1063,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2">
         <v>14</v>
@@ -1057,7 +1086,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2">
         <v>4</v>
@@ -1080,7 +1109,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2">
         <v>6</v>
@@ -1103,7 +1132,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2">
         <v>12</v>
